--- a/WebScraping Scrapy/productos_blackanddecker.xlsx
+++ b/WebScraping Scrapy/productos_blackanddecker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3685 +436,6298 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>url_base</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name_page</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>information</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>name_product</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>description_product</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>category_product</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>esp_tecnic_product</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>price_product</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>brand</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>link</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sku</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>brand</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>name_product</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>description_product</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>image_product</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>category_product</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>esp_tecnic_product</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>price_product</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>name_page</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>url_base</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/mtx20k6a-ar/taladro-inalambrico-20v-max-matrix-con-6-cabezales-intercambiables?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MTX20K6A-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Taladro Inalámbrico 20V MAX* MATRIX™ con 6 Cabezales Intercambiables</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>La nueva herramienta MATRIX™ BLACK+DECKER®  con 6 cabezales intercambiable es perfecto para proyectos en la casa, jardin o garage. La unidad de alimentación inalámbrica de 20 V MAX* proporciona movilidad sin la molestia de una unidad con cable. El innovador MATRIX™ Quick Connect System™ és la única herramienta del mercado con sistema QUICK CONNECT y permite un cambio rápido y fácil de todos los accesorios incluidos.</t>
+          <t>BD40K27-AR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Atornillador inteligente 4 V máx., ion-litio + 27 accesorios</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Atornillador inteligente 4 V máx., ion-litio + 27 accesorios</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bd40k27-ar/atornillador-inteligente-4-v-max-ion-litio-27-accesorios?tid=586361</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BD40K27-AR/BD40K27_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bd40k27-ar/atornillador-inteligente-4-v-max-ion-litio-27-accesorios?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BD40K27-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atornillador inteligente 4 V máx., ion-litio + 27 accesorios</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>G720K-AR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Esmeriladora Angular + Caja Plástica + 2 Accesorios 4-1/2" (115mm) - 820W</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Esmeriladora Angular + Caja Plástica + 2 Accesorios 4-1/2" (115mm) - 820W</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/g720k-ar/esmeriladora-angular-caja-plastica-2-accesorios-4-12-115mm-820w?tid=586361</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/G720K-AR/G720K_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/g720k-ar/esmeriladora-angular-caja-plastica-2-accesorios-4-12-115mm-820w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G720K-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Esmeriladora Angular + Caja Plástica + 2 Accesorios 4-1/2" (115mm) - 820W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>G720N-AR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Amoladora Angular 115mm 820W</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Amoladora Angular 115mm 820W</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/g720n-ar/amoladora-angular-115mm-820w?tid=586361</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/G720N-AR/G720N_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/g720n-ar/amoladora-angular-115mm-820w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G720N-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Amoladora Angular 115mm 820W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>MTX20K6A-AR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Inalámbrico 20V MAX* MATRIX™ con 6 Cabezales Intercambiables</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Inalámbrico 20V MAX* MATRIX™ con 6 Cabezales Intercambiables</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/mtx20k6a-ar/taladro-inalambrico-20v-max-matrix-con-6-cabezales-intercambiables?tid=586361</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/MTX20K6A-AR/MTX20K6A_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/tm500-ar/taladro-de-impacto-38-10mm-560w-127v?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TM500-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Taladro de impacto 3/8" (10mm) 560W - 127V</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Uno de los taladros más conocidos y vendidos en brasil. el TM500 es infalible. es un elemento imprescindible en toda caja de herramientas.</t>
+          <t>BDC33L-AR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Heladera Termoeléctrica 33L - 240V/12V</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Heladera Termoeléctrica 33L - 240V/12V</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bdc33l-ar/heladera-termoelectrica-33l-240v12v?tid=586361</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDC33L-AR/BDC33L_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bdinf12-la/inflador-de-12v?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BDINF12-LA</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Inflador de 12V</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>QS1000-AR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Lijadora Orbital 220W 1/4 Hoja</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Lijadora Orbital 220W 1/4 Hoja</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/qs1000-ar/lijadora-orbital-220w-14-hoja?tid=586361</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/QS1000-AR/QS1000_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bdc33l-ar/heladera-termoelectrica-33l-240v12v?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BDC33L-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Heladera Termoeléctrica 33L - 240V/12V</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>KS501-AR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Sierra Caladora 400W</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Sierra Caladora 400W</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/ks501-ar/sierra-caladora-400w?tid=586361</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/KS501-AR/KS501_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/br318-ar/lijadora-de-banda-680w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BR318-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lijadora de Banda 680W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>HD650-AR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Percutor 650W 1/2" (13mm) - 650W</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Percutor 650W 1/2" (13mm) - 650W</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/hd650-ar/taladro-percutor-650w-12-13mm-650w?tid=586361</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/HD650-AR/HD650_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bcd702pk2b-ar/taladroatornillador-inalambrico-de-20-v-max-kit-de-proyecto-de-54-piezas?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BCD702PK2B-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Taladro/atornillador inalámbrico de 20 V MAX* + kit de proyecto de 54 piezas</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Este kit de proyecto de taladro/atornillador de 20 V MAX* es ideal para nuevos propietarios o cualquier persona que desee actualizar sus herramientas. El kit incluye 54 herramientas manuales y accesorios con dos baterías de 20 V MAX*.͍ ͍ Las herramientas manuales y los accesorios incluidos son perfectos para muchas de las necesidades de sus proyectos domésticos. También se incluye una bolsa de transporte para facilitar la portabilidad y el almacenamiento organizado.</t>
+          <t>BDWDS20-AR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Aspiradora Polvo y Agua 1600W 20L</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Aspiradora Polvo y Agua 1600W 20L</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bdwds20-ar/aspiradora-polvo-y-agua-1600w-20l?tid=586361</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDWDS20-AR/BDWDS20_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/ks501-ar/sierra-caladora-400w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KS501-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sierra Caladora 400W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>LD12S-AR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Atornillador Inalambrico 12V Litio</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Atornillador Inalambrico 12V Litio</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/ld12s-ar/taladro-atornillador-inalambrico-12v-litio?tid=586361</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/LD12S-AR/LD12S_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/qs1000-ar/lijadora-orbital-220w-14-hoja?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>QS1000-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lijadora Orbital 220W 1/4 Hoja</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BDC24L-AR</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Heladera Termoeléctrica 24L - 240V/12V</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Heladera Termoeléctrica 24L - 240V/12V</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bdc24l-ar/heladera-termoelectrica-24l-240v12v?tid=586361</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDC24L-AR/BDC24L_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/hd650-ar/taladro-percutor-650w-12-13mm-650w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HD650-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Taladro Percutor 650W 1/2" (13mm) - 650W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BC40-AR</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Cargador de Baterias de 4A, 10A, 25A, 40A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Cargador de Baterias de 4A, 10A, 25A, 40A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bc40-ar/cargador-de-baterias-de-4a-10a-25a-40a?tid=586361</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BC40-AR/BC40_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/ld12s-ar/taladro-atornillador-inalambrico-12v-litio?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LD12S-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Taladro Atornillador Inalambrico 12V Litio</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>KS701E-AR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Sierra Caladora 550W</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Sierra Caladora 550W</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/ks701e-ar/sierra-caladora-550w?tid=586361</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/KS701E-AR/KS701E_P1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bdwds20-ar/aspiradora-polvo-y-agua-1600w-20l?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BDWDS20-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aspiradora Polvo y Agua 1600W 20L</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>JS350S-AR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Arrancador Auxiliar para Auto 350A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Arrancador Auxiliar para Auto 350A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/js350s-ar/arrancador-auxiliar-para-auto-350a?tid=586361</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/JS350S-AR/JS350S_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bdc24l-ar/heladera-termoelectrica-24l-240v12v?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BDC24L-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Heladera Termoeléctrica 24L - 240V/12V</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>CD121K-AR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Inalambrico 12V + Maletin</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Inalambrico 12V + Maletin</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/cd121k-ar/taladro-inalambrico-12v-maletin?tid=586361</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/CD121K-AR/CD121K_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/hg1500-ar/pistola-de-calor-1500w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HG1500-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pistola de Calor 1500W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BD7260-AR</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Kit Atornillador Inalambrico 3.6V + 138 Acc</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Kit Atornillador Inalambrico 3.6V + 138 Acc</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bd7260-ar/kit-atornillador-inalambrico-36v-138-acc?tid=586361</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BD7260-AR/BD7260_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/hd555k88-ar/kit-de-taladro-de-impacto-12-13mm-550w-vvr-con-82-accesorios-y-maletin-127v?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HD555K88-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kit de taladro de impacto 1/2" (13mm) 550W VVR con 82 accesorios y maletín - 127V</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Excelente taladro y kit de accesorios. un clásico de BLACK+DECKER</t>
+          <t>9036-AR</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Atornillador Inalambrico 3.6V</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Atornillador Inalambrico 3.6V</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/9036-ar/atornillador-inalambrico-36v?tid=586361</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/9036-AR/9036_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bc40-ar/cargador-de-baterias-de-4a-10a-25a-40a?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BC40-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cargador de Baterias de 4A, 10A, 25A, 40A</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BDERO100-AR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Lijadora Roto Orbital 180W Disco 5"</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Lijadora Roto Orbital 180W Disco 5"</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bdero100-ar/lijadora-roto-orbital-180w-disco-5?tid=586361</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDERO100-AR/BDERO100_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/js500cc-ar/arrancador-auxiliar-para-auto-con-compresor-500a?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JS500CC-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arrancador Auxiliar para Auto con Compresor 500A</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>KS701PEK-AR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Sierra Caladora 550W + Maletin</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Sierra Caladora 550W + Maletin</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/ks701pek-ar/sierra-caladora-550w-maletin?tid=586361</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/KS701PEK-AR/KS701PEK_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/kc4815k-ar/kit-atornillador-inalambrico-48v?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KC4815K-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kit Atornillador Inalambrico 4.8V</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>G650-AR</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Amoladora Angular 115mm 650W</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Amoladora Angular 115mm 650W</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/g650-ar/amoladora-angular-115mm-650w?tid=586361</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/G650-AR/G650_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/g650-ar/amoladora-angular-115mm-650w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>G650-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Amoladora Angular 115mm 650W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BC12-AR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Cargador de Baterias de 2A, 8A, 12A</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Cargador de Baterias de 2A, 8A, 12A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bc12-ar/cargador-de-baterias-de-2a-8a-12a?tid=586361</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BC12-AR/BC12_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/ks701pek-ar/sierra-caladora-550w-maletin?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KS701PEK-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sierra Caladora 550W + Maletin</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>KP12K-AR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Pulidora Orbital 240mm 120W</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Pulidora Orbital 240mm 120W</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/kp12k-ar/pulidora-orbital-240mm-120w?tid=586361</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/KP12K-AR/KP12K_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bc12-ar/cargador-de-baterias-de-2a-8a-12a?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BC12-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cargador de Baterias de 2A, 8A, 12A</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BCRT8K35-AR</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Herramienta Rotativa 8V con 35 Acc y Estuche</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Herramienta Rotativa 8V con 35 Acc y Estuche</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bcrt8k35-ar/herramienta-rotativa-8v-con-35-acc-y-estuche?tid=586361</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BCRT8K35-AR/BCRT8K35_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BDWD10-AR</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Aspiradora Polvo y Agua 1200W 10L</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Aspiradora Polvo y Agua 1200W 10L</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>https://ar.blackanddecker.global/producto/bdwd10-ar/aspiradora-polvo-y-agua-1200w-10l?tid=586361</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BDWD10-AR</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Aspiradora Polvo y Agua 1200W 10L</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Black &amp; Decker</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>SBD</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDWD10-AR/BDWD10_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/kp12k-ar/pulidora-orbital-240mm-120w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KP12K-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Pulidora Orbital 240mm 120W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>G720K12-AR</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Esmeriladora Angular + Caja Plástica + 12 Accesorios 4-1/2" (115mm) - 820W</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Esmeriladora Angular + Caja Plástica + 12 Accesorios 4-1/2" (115mm) - 820W</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/g720k12-ar/esmeriladora-angular-caja-plastica-12-accesorios-4-12-115mm-820w?tid=586361</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/G720K12-AR/G720K12_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CD121K100-AR</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Taladro/Atornillador 12V + 100 Accs</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Taladro/Atornillador 12V + 100 Accs</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>https://ar.blackanddecker.global/producto/cd121k100-ar/taladroatornillador-12v-100-accs?tid=586361</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CD121K100-AR</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Taladro/Atornillador 12V + 100 Accs</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Black &amp; Decker</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>SBD</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/CD121K100-AR/CD121K100_CD121K_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>HD565K-AR</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kit Taladro Percutor 550W (1/2") y Accesorios</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Kit Taladro Percutor 550W (1/2") y Accesorios</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>https://ar.blackanddecker.global/producto/hd565k-ar/kit-taladro-percutor-550w-12-y-accesorios?tid=586361</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HD565K-AR</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Kit Taladro Percutor 550W (1/2") y Accesorios</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Black &amp; Decker</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>SBD</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/HD565K-AR/HD565K_HD555_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bcrt8k35-ar/herramienta-rotativa-8v-con-35-acc-y-estuche?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BCRT8K35-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Herramienta Rotativa 8V con 35 Acc y Estuche</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>La herramienta rotativa BLACK+DECKER de 8V tiene potencia y tiempo de funcionamiento adecuados para una amplia variedad de aplicaciones domésticas. Su potente anillo LED es perfecto para usarse en áreas oscuras y para realizar tareas más detalladas. También tiene una configuración de cinco velocidades, lo que permite al usuario un control de velocidad más intuitivo, y también el puerto de carga USB brinda la capacidad de usar cualquier cable y enchufe micro USB disponibles. Existe una serie de accesorios de apoyo que ofrecen la versatilidad para completar una gama aún más amplia de aplicaciones.</t>
+          <t>7698-AR</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Cepillo Electrico 650W</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Cepillo Electrico 650W</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/7698-ar/cepillo-electrico-650w?tid=586361</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/7698-AR/7698_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/g720k12-ar/esmeriladora-angular-caja-plastica-12-accesorios-4-12-115mm-820w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>G720K12-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Esmeriladora Angular + Caja Plástica + 12 Accesorios 4-1/2" (115mm) - 820W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>RT18KA-AR</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Minitorno 120W + 113 Accesorios + Maletin</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Minitorno 120W + 113 Accesorios + Maletin</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/rt18ka-ar/minitorno-120w-113-accesorios-maletin?tid=586361</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/RT18KA-AR/RT18KA_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/rt18ka-ar/minitorno-120w-113-accesorios-maletin?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RT18KA-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Minitorno 120W + 113 Accesorios + Maletin</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BS200-AR</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Lijadora Orbital 200W 1/4 Hoja</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Lijadora Orbital 200W 1/4 Hoja</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bs200-ar/lijadora-orbital-200w-14-hoja?tid=586361</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BS200-AR/BS200_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/7698-ar/cepillo-electrico-650w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7698-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cepillo Electrico 650W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>TM555-AR</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro de impacto 1/2" (13mm) 560W VVR- 127V</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro de impacto 1/2" (13mm) 560W VVR- 127V</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/tm555-ar/taladro-de-impacto-12-13mm-560w-vvr-127v?tid=586361</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/TM555-AR/TM555_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bs200-ar/lijadora-orbital-200w-14-hoja?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BS200-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Lijadora Orbital 200W 1/4 Hoja</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BCD704C1-AR</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Percutor Inalambrico 20V MAX* Litio</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Percutor Inalambrico 20V MAX* Litio</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bcd704c1-ar/taladro-percutor-inalambrico-20v-max-litio?tid=586361</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BCD704C1-AR/BCD704C1_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/tm555-ar/taladro-de-impacto-12-13mm-560w-vvr-127v?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TM555-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Taladro de impacto 1/2" (13mm) 560W VVR- 127V</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>La versión con mandril de 13 mm del clásico taladro de impacto BLACK+DECKER, con velocidad variable y reversible.</t>
+          <t>TM500-AR</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro de impacto 3/8" (10mm) 560W - 127V</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro de impacto 3/8" (10mm) 560W - 127V</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/tm500-ar/taladro-de-impacto-38-10mm-560w-127v?tid=586361</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/TM500-AR/TM500_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bcd704c1-ar/taladro-percutor-inalambrico-20v-max-litio?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BCD704C1-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Taladro Percutor Inalambrico 20V MAX* Litio</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BCD702PK2B-AR</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro/atornillador inalámbrico de 20 V MAX* + kit de proyecto de 54 piezas</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro/atornillador inalámbrico de 20 V MAX* + kit de proyecto de 54 piezas</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bcd702pk2b-ar/taladroatornillador-inalambrico-de-20-v-max-kit-de-proyecto-de-54-piezas?tid=586361</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BCD702PK2B-AR/BCD702PK2B_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/ks701e-ar/sierra-caladora-550w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KS701E-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sierra Caladora 550W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BDINF12-LA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Inflador de 12V</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Inflador de 12V</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bdinf12-la/inflador-de-12v?tid=586361</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDINF12-LA/BDINF12_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/js350s-ar/arrancador-auxiliar-para-auto-350a?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JS350S-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Arrancador Auxiliar para Auto 350A</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BR318-AR</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Lijadora de Banda 680W</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Lijadora de Banda 680W</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/br318-ar/lijadora-de-banda-680w?tid=586361</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BR318-AR/BR318_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>HD455KA-AR</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Talandro Percutor 3/8'' (10mm) com 41 accesorios</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Talandro Percutor 3/8'' (10mm) com 41 accesorios</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>https://ar.blackanddecker.global/producto/hd455ka-ar/talandro-percutor-38-10mm-com-41-accesorios?tid=586361</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>HD455KA-AR</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Talandro Percutor 3/8'' (10mm) com 41 accesorios</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Talandro Percutor Versatil, - Hazlo tú mismo, ya sea madera, metal, plástico.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Black &amp; Decker</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>SBD</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/HD455KA-AR/HD455KA_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>LD120KA-AR</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Taladro Destornillador 20v 50 Piezas</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Taladro Destornillador 20v 50 Piezas</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t>https://ar.blackanddecker.global/producto/ld120ka-ar/taladro-destornillador-20v-50-piezas?tid=586361</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>LD120KA-AR</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Taladro Destornillador 20v 50 Piezas</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>El Taladro/Atornillador modelo LD120KA es ideal para taladrar, taladrar, atornillar y desatornillar, apto para algunas reformas y pequeñas reparaciones en el hogar entre otros. Es de 20V con 1.5AH y tiene una base deslizable para un perfecto calce y desenganche. También cuenta con luz LED, mandril de 3/8″, potencia de 20 V, por lo que alcanza las 650 rpm en velocidad variable y reversible, brindando un mejor desempeño para el trabajo a realizar. Su empuñadura es de goma para una mejor ergonomía, portapuntas ubicado en la parte trasera de la herramienta. Gatillo con velocidad variable, reversible y bloqueo que garantiza la seguridad del operador.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Black &amp; Decker</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>SBD</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/LD120KA-AR/LD120KA_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>JS20-AR</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sierra Caladora</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Sierra Caladora</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>https://ar.blackanddecker.global/producto/js20-ar/sierra-caladora?tid=586361</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>JS20-AR</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Sierra Caladora</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>La Sierra Caladora JS20 es ideal para cortar madera, metal plástico en mantenimiento, construcción, carpintería, etc.\nLa JS20 tiene un potente motor de 400 watts, su velocidad es variable, ofrece un fácil cambio de hoja de corte. También cuenta con diseño ergonómico, hoja visible para un corte preciso, sistema de soplado para mantener limpia el área de corte.\nSu base es regulable para cortes en ángulo de 0º a 45º, cuenta con guía de corte lineal. Efectos de bajo nivel de vibraciones con mecanismo de contrapeso y empuñadura de goma.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Black &amp; Decker</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>SBD</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/JS20-AR/JS20_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bewc220-ar/combo-amoladora-g720n-lijadora-orbital-bew220?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BEWC220-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Combo Amoladora G720N Lijadora Orbital BEW220</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>HD650KIT-AR</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Kit de taladro percutor + Caja + 70 accesorios</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Kit de taladro percutor + Caja + 70 accesorios</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/hd650kit-ar/kit-de-taladro-percutor-caja-70-accesorios?tid=586361</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/HD650KIT-AR/HD650KIT_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/hd650kit-ar/kit-de-taladro-percutor-caja-70-accesorios?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HD650KIT-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kit de taladro percutor + Caja + 70 accesorios</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Haga una adición útil a sus herramientas con este martillo perforador (13MM 650W+50 PC). Viene completo con una variedad de brocas para adaptarse a los requisitos de varios proyectos. Este taladro/martillo funciona con 2 baterías de iones de litio y tiene un potente motor de 650 W para garantizar un excelente rendimiento. El mango de agarre suave y la función de velocidad variable le brindan un mejor control y lo ayudan a completar la tarea con facilidad.</t>
+          <t>BEWC220-AR</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Combo Amoladora G720N Lijadora Orbital BEW220</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Combo Amoladora G720N Lijadora Orbital BEW220</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bewc220-ar/combo-amoladora-g720n-lijadora-orbital-bew220?tid=586361</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://bynder.sbdinc.com/m/9effe9eb2dd852f/Web_Large-BD_product-fallbackat3x_LBL1.jpg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/ld12sp-ar/taladroatornillador-12v-estuche-plastico-hor?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>LD12SP-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Taladro/Atornillador 12V + Estuche plástico HOR</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BC25-AR</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Cargador de Baterias de 4A, 12A, 25A</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Cargador de Baterias de 4A, 12A, 25A</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bc25-ar/cargador-de-baterias-de-4a-12a-25a?tid=586361</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BC25-AR/BC25_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BDWD15-AR</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Aspiradora Polvo y Agua 1400W 15L</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Aspiradora Polvo y Agua 1400W 15L</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>https://ar.blackanddecker.global/producto/bdwd15-ar/aspiradora-polvo-y-agua-1400w-15l?tid=586361</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>BDWD15-AR</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Aspiradora Polvo y Agua 1400W 15L</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Black &amp; Decker</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>SBD</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDWD15-AR/BDWD15_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bcd702c1-ar/taladro-inalambrico-20v-max-litio?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BCD702C1-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Taladro Inalambrico 20V MAX* Litio</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>LD12SP-AR</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro/Atornillador 12V + Estuche plástico HOR</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro/Atornillador 12V + Estuche plástico HOR</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/ld12sp-ar/taladroatornillador-12v-estuche-plastico-hor?tid=586361</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/LD12SP-AR/LD12SP_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/g650k5-ar/amoladora-angular-de-4-12-115-mm-650-w-127-v?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>G650K5-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Amoladora angular de 4-1/2” (115 mm) 650 W 127 V</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>La amoladora G650 es una herramienta indispensable, ideal en sus trabajos y en servicios metalúrgicos en general.</t>
+          <t>BCD702C1-AR</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Inalambrico 20V MAX* Litio</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Inalambrico 20V MAX* Litio</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bcd702c1-ar/taladro-inalambrico-20v-max-litio?tid=586361</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BCD702C1-AR/BCD702C1_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bc25-ar/cargador-de-baterias-de-4a-12a-25a?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BC25-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cargador de Baterias de 4A, 12A, 25A</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>BCD70250PK-AR</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro/atornillador inalámbrico de 20 V MAX* + kit de proyecto de 44 piezas</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro/atornillador inalámbrico de 20 V MAX* + kit de proyecto de 44 piezas</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/bcd70250pk-ar/taladroatornillador-inalambrico-de-20-v-max-kit-de-proyecto-de-44-piezas?tid=586361</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BCD70250PK-AR/BCD70250PK_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bcd70250pk-ar/taladroatornillador-inalambrico-de-20-v-max-kit-de-proyecto-de-44-piezas?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BCD70250PK-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Taladro/atornillador inalámbrico de 20 V MAX* + kit de proyecto de 44 piezas</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Este kit de proyecto de taladro/atornillador inalámbrico de 20 V MAX* es ideal para el nuevo propietario o cualquier persona que desee iniciar o actualizar su caja de herramientas para el hogar. \nEl kit incluye 44 herramientas manuales y accesorios. Con este kit, está equipado para manejar muchas reparaciones del hogar y proyectos de construcción de bricolaje.</t>
+          <t>G650K5-AR</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Amoladora angular de 4-1/2” (115 mm) 650 W 127 V</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Amoladora angular de 4-1/2” (115 mm) 650 W 127 V</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/g650k5-ar/amoladora-angular-de-4-12-115-mm-650-w-127-v?tid=586361</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/G650K5-AR/G650K5_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/hd650k-ar/taladro-percutor-13mm-650w-velocidad-variable-maletin?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HD650K-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Taladro Percutor 13mm 650W Velocidad Variable + Maletin</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>CS1004-AR</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Sierra Circular 1400W</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Sierra Circular 1400W</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/cs1004-ar/sierra-circular-1400w?tid=586361</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/CS1004-AR/CS1004_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/cs1004-ar/sierra-circular-1400w?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CS1004-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sierra Circular 1400W</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>HD650K-AR</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Percutor 13mm 650W Velocidad Variable + Maletin</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Taladro Percutor 13mm 650W Velocidad Variable + Maletin</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/hd650k-ar/taladro-percutor-13mm-650w-velocidad-variable-maletin?tid=586361</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/HD650K-AR/HD650K_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BEW220-AR</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Lijadora Orbital 150W Hoja 1/3</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Lijadora Orbital 150W Hoja 1/3</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>https://ar.blackanddecker.global/producto/bew220-ar/lijadora-orbital-150w-hoja-13?tid=586361</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>BEW220-AR</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Lijadora Orbital 150W Hoja 1/3</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Black &amp; Decker</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>SBD</t>
-        </is>
-      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BEW220-AR/BEW220_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bdcv610-la/aspiradora-para-auto-de-12v?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BDCV610-LA</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Aspiradora para Auto de 12V</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>JS500CC-AR</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Arrancador Auxiliar para Auto con Compresor 500A</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Arrancador Auxiliar para Auto con Compresor 500A</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/js500cc-ar/arrancador-auxiliar-para-auto-con-compresor-500a?tid=586361</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/JS500CC-AR/JS500CC_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/cd121k-ar/taladro-inalambrico-12v-maletin?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CD121K-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Taladro Inalambrico 12V + Maletin</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>HG1500-AR</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Pistola de Calor 1500W</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Pistola de Calor 1500W</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/hg1500-ar/pistola-de-calor-1500w?tid=586361</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/HG1500-AR/HG1500_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/bd7260-ar/kit-atornillador-inalambrico-36v-138-acc?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BD7260-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Kit Atornillador Inalambrico 3.6V + 138 Acc</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>HD555K88-AR</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Kit de taladro de impacto 1/2" (13mm) 550W VVR con 82 accesorios y maletín - 127V</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Kit de taladro de impacto 1/2" (13mm) 550W VVR con 82 accesorios y maletín - 127V</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/hd555k88-ar/kit-de-taladro-de-impacto-12-13mm-550w-vvr-con-82-accesorios-y-maletin-127v?tid=586361</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/HD555K88-AR/HD555K88_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://ar.blackanddecker.global/producto/9036-ar/atornillador-inalambrico-36v?tid=586361</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9036-AR</t>
+          <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Black &amp; Decker</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Atornillador Inalambrico 3.6V</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>KC4815K-AR</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Kit Atornillador Inalambrico 4.8V</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Kit Atornillador Inalambrico 4.8V</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Black &amp; Decker</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>https://ar.blackanddecker.global/producto/kc4815k-ar/kit-atornillador-inalambrico-48v?tid=586361</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/KC4815K-AR/KC4815K_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>https://ar.blackanddecker.global/productos/herramientas-electricas?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>BDCV610-LA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Aspiradora para Auto de 12V</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Aspiradora para Auto de 12V</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdcv610-la/aspiradora-para-auto-de-12v?tid=586361</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDCV610-LA/BDCV610-LA_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>BDHT81585</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ALICATE DE CORTE DIAGONAL 7" (180mm)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>ALICATE DE CORTE DIAGONAL 7" (180mm)</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81585/alicate-de-corte-diagonal-7-180mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81585/BDHT81585_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>BDHT16696</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Formón para madera 18mm</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Formón para madera 18mm</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht16696/formon-para-madera-18mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT16696/BDHT16696_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>BDHT81570</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>APLICADOR DE SILICONA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>APLICADOR DE SILICONA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81570/aplicador-de-silicona?tid=586541</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81570/BDHT81570_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>BDHT43190</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Nivel 100cm</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Nivel 100cm</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht43190/nivel-100cm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT43190/BDHT43190_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>BDHT22144</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LIMA PLANA - 200mm</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>LIMA PLANA - 200mm</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht22144/lima-plana-200mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT22144/BDHT22144_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>BDHT62299</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Destornillador de punta plana 6,5 X 150mm</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Destornillador de punta plana 6,5 X 150mm</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht62299/destornillador-de-punta-plana-65-x-150mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT62299/BDHT62299_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>BDHT36152</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Cinta métrica Bi-Mat BLACK+DECKER 3m x 16mm</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Cinta métrica Bi-Mat BLACK+DECKER 3m x 16mm</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht36152/cinta-metrica-bi-mat-blackdecker-3m-x-16mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT36152/BDHT36152_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>BDHT20344</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Arco de Sierra 12" (300mm)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Arco de Sierra 12" (300mm)</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht20344/arco-de-sierra-12-300mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT20344/BDHT20344_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>BDHT81586</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ALICATE DE PUNTA LARGA  6’’ (160mm)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>ALICATE DE PUNTA LARGA  6’’ (160mm)</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81586/alicate-de-punta-larga-6-160mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81586/BDHT81586_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>BDHT81590</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Llave Ajustable  6'' (150mm)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Llave Ajustable  6'' (150mm)</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81590/llave-ajustable-6-150mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81590/BDHT81590_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>BDHT81589</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Alicate Pelícano 10''  (250mm)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Alicate Pelícano 10''  (250mm)</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81589/alicate-pelicano-10-250mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81589/BDHT81589_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>BDHT51395</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Martillos din com mango de fibra de vidrio</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Martillos din com mango de fibra de vidrio</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht51395/martillos-din-com-mango-de-fibra-de-vidrio?tid=586541</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT51395/BDHT51395_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>BDHT51394</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Martillos din com mango de fibra de vidrio</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Martillos din com mango de fibra de vidrio</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht51394/martillos-din-com-mango-de-fibra-de-vidrio?tid=586541</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT51394/BDHT51394_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>BDHT81584</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Alicate de Corte Diagonal 6'' (160mm)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Alicate de Corte Diagonal 6'' (160mm)</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81584/alicate-de-corte-diagonal-6-160mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81584/BDHT81584_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>BDHT10395</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Cuchilla Retráctil  (500g)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Cuchilla Retráctil  (500g)</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht10395/cuchilla-retractil-500g?tid=586541</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT10395/BDHT10395_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>BDHT10396</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Cuchilla Snap-off de bloqueo automático (18mm)</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Cuchilla Snap-off de bloqueo automático (18mm)</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht10396/cuchilla-snap-de-bloqueo-automatico-18mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT10396/BDHT10396_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>BDHT10397</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Estilete seguridad retráctil 18mm</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Estilete seguridad retráctil 18mm</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht10397/estilete-seguridad-retractil-18mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT10397/BDHT10397_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>BDHT20346</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Caja de escuadra + Sierra</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Caja de escuadra + Sierra</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht20346/caja-de-escuadra-sierra?tid=586541</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT20346/BDHT20346_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>BDHT51396</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Martillo de uña con mango de fibra de vidrio - 27mm / 16oz</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Martillo de uña con mango de fibra de vidrio - 27mm / 16oz</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht51396/martillo-de-una-con-mango-de-fibra-de-vidrio-27mm-16oz?tid=586541</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT51396/BDHT51396_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>BDHT81591</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LLAVE AJUSTABLE 8’’ (200mm)</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>LLAVE AJUSTABLE 8’’ (200mm)</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81591/llave-ajustable-8-200mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81591/BDHT81591_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>BDHT43188</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Nivel de aluminio 18" (40cm)</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Nivel de aluminio 18" (40cm)</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht43188/nivel-de-aluminio-18-40cm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT43188/BDHT43188_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>BDHT20345</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Mini sierra de mano 10" (254mm)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Mini sierra de mano 10" (254mm)</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht20345/mini-sierra-de-mano-10-254mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT20345/BDHT20345_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>BDHT16697</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Formón para madera 1" (25mm)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Formón para madera 1" (25mm)</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht16697/formon-para-madera-1-25mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT16697/BDHT16697_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>BDHT81587</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ALICATE UNIVERSAL 6’’ (160mm)</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ALICATE UNIVERSAL 6’’ (160mm)</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81587/alicate-universal-6-160mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81587/BDHT81587_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>BDHT68127</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Destornillador com mango de carraca 10 em 1 con puntas intercambiables</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Destornillador com mango de carraca 10 em 1 con puntas intercambiables</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht68127/destornillador-com-mango-de-carraca-10-em-1-con-puntas-intercambiables?tid=586541</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT68127/BDHT68127_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>BDHT10394</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Estilete retráctil 18mm</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Estilete retráctil 18mm</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht10394/estilete-retractil-18mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT10394/BDHT10394_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>BDHT36153</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Cinta métrica Bi-Mat BLACK+DECKER 5m x 19mm</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Cinta métrica Bi-Mat BLACK+DECKER 5m x 19mm</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht36153/cinta-metrica-bi-mat-blackdecker-5m-x-19mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT36153/BDHT36153_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>BDHT22146</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LIMA MEIA CANA - 200mm</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>LIMA MEIA CANA - 200mm</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht22146/lima-meia-cana-200mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT22146/BDHT22146_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>BDHT22145</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LIMA REDONDA - 200mm</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>LIMA REDONDA - 200mm</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht22145/lima-redonda-200mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT22145/BDHT22145_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>BDHT51397</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Martillo de uña con mango de fibra de vidrio - 29mm / 20oz</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Martillo de uña con mango de fibra de vidrio - 29mm / 20oz</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht51397/martillo-de-una-con-mango-de-fibra-de-vidrio-29mm-20oz?tid=586541</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT51397/BDHT51397_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>BDHT81569</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Tijera Universal 10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Tijera Universal 10</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81569/tijera-universal-10?tid=586541</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81569/BDHT81569_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>BDHT62297</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Destornillador de punta en cruz PH2 X 150mm</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Destornillador de punta en cruz PH2 X 150mm</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht62297/destornillador-de-punta-en-cruz-ph2-x-150mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT62297/BDHT62297_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>BDHT81588</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ALICATE UNIVERSAL 7’’ (180mm)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ALICATE UNIVERSAL 7’’ (180mm)</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81588/alicate-universal-7-180mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81588/BDHT81588_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>BDHT62296</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Destornillador de punta en cruz PH1 X 100mm</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Destornillador de punta en cruz PH1 X 100mm</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht62296/destornillador-de-punta-en-cruz-ph1-x-100mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT62296/BDHT62296_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>BDHT36154</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Cinta métrica Bi-Mat BLACK+DECKER 8m x 25mm</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Cinta métrica Bi-Mat BLACK+DECKER 8m x 25mm</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht36154/cinta-metrica-bi-mat-blackdecker-8m-x-25mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT36154/BDHT36154_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>BDHT81592</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LLAVE AJUSTABLE 10’’ (250mm)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>LLAVE AJUSTABLE 10’’ (250mm)</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht81592/llave-ajustable-10-250mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT81592/BDHT81592_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>BDHT16695</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Formón para madera 1/2" (12mm)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Formón para madera 1/2" (12mm)</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht16695/formon-para-madera-12-12mm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT16695/BDHT16695_1.jpg?resize=530x530</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/productos/herramientas-manuales?page=num_pag</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Black &amp; Decker</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>BDHT43189</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Nivel de aluminio 24" (60cm)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Nivel de aluminio 24" (60cm)</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/producto/bdht43189/nivel-de-aluminio-24-60cm?tid=586541</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>https://ar.blackanddecker.global/LAG/PRODUCT/IMAGES/HIRES/BDHT43189/BDHT43189_1.jpg?resize=530x530</t>
         </is>
       </c>
     </row>
